--- a/tests/stud2-solver-multi-sheet.xlsx
+++ b/tests/stud2-solver-multi-sheet.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="GA" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="test1" vbProcedure="false">Sheet2!$E$1</definedName>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -120,18 +121,34 @@
     <t xml:space="preserve">total</t>
   </si>
   <si>
-    <t xml:space="preserve">Thu Dec 27 19:18:05 UTC 2018 | 4951</t>
+    <t xml:space="preserve">TMP222</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -139,6 +156,7 @@
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -184,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -192,6 +210,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -218,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,22 +252,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -254,14 +283,11 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.04"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.05859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -319,14 +345,11 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.04"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.05859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -383,4 +406,61 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>4951</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/tests/stud2-solver-multi-sheet.xlsx
+++ b/tests/stud2-solver-multi-sheet.xlsx
@@ -413,13 +413,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -440,7 +440,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>6952</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>4951</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">E2+F2</f>
+        <v>6952</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,7 +461,17 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>6953</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>4951</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">E3+F3</f>
+        <v>6953</v>
       </c>
     </row>
   </sheetData>
